--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-01_end.xlsx
@@ -792,7 +792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   Deserted Mobile City - 2 days after the discovery of "Facility #14"
+    <t xml:space="preserve">[name=""]   Deserted Mobile City - 2 days after the discovery of 'Facility #14'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-01_end.xlsx
@@ -660,7 +660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   6:03 PM \ Overcast \ Visibility: 19 km
+    <t xml:space="preserve">[name=""]   6:03 P.M. \ Overcast \ Visibility: 19 km
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   6:12 PM \ Overcast \ Visibility: 19 km
+    <t xml:space="preserve">[name=""]   6:12 P.M. \ Overcast \ Visibility: 19 km
 </t>
   </si>
   <si>
